--- a/data/league_data/france/21/france_misc.xlsx
+++ b/data/league_data/france/21/france_misc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A736C21-55C5-C340-BCC1-2F3B7BB7E649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FAB86E-CE51-0D48-B6F5-EA0CE55400BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -331,9 +331,6 @@
     <t>Leo Dubois</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>br BRA</t>
   </si>
   <si>
@@ -1844,6 +1841,9 @@
   </si>
   <si>
     <t>Dion Moise Sahi</t>
+  </si>
+  <si>
+    <t>Marcelo Filho</t>
   </si>
 </sst>
 </file>
@@ -2710,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5615,10 +5615,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>35</v>
@@ -5689,7 +5689,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>29</v>
@@ -5763,7 +5763,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>100</v>
@@ -5837,7 +5837,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>52</v>
@@ -5911,7 +5911,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>29</v>
@@ -5985,7 +5985,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>70</v>
@@ -6059,7 +6059,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>29</v>
@@ -6133,7 +6133,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>29</v>
@@ -6207,7 +6207,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>29</v>
@@ -6281,7 +6281,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>29</v>
@@ -6355,10 +6355,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>35</v>
@@ -6429,7 +6429,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>29</v>
@@ -6503,7 +6503,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>76</v>
@@ -6577,10 +6577,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>35</v>
@@ -6651,10 +6651,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>85</v>
@@ -6725,7 +6725,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>29</v>
@@ -6799,7 +6799,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>29</v>
@@ -6873,7 +6873,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>64</v>
@@ -6947,7 +6947,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>29</v>
@@ -7021,10 +7021,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>66</v>
@@ -7095,7 +7095,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>29</v>
@@ -7169,7 +7169,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>29</v>
@@ -7243,7 +7243,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>76</v>
@@ -7317,7 +7317,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>29</v>
@@ -7391,7 +7391,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>34</v>
@@ -7465,7 +7465,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>29</v>
@@ -7539,7 +7539,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>90</v>
@@ -7613,7 +7613,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>29</v>
@@ -7687,10 +7687,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>85</v>
@@ -7761,10 +7761,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>26</v>
@@ -7833,10 +7833,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>66</v>
@@ -7907,7 +7907,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>29</v>
@@ -7981,13 +7981,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>38</v>
@@ -8055,10 +8055,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>35</v>
@@ -8129,7 +8129,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>29</v>
@@ -8203,7 +8203,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>88</v>
@@ -8277,7 +8277,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>29</v>
@@ -8351,7 +8351,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>29</v>
@@ -8425,7 +8425,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>29</v>
@@ -8499,7 +8499,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>29</v>
@@ -8573,7 +8573,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>52</v>
@@ -8647,7 +8647,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>34</v>
@@ -8721,7 +8721,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>90</v>
@@ -8795,7 +8795,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>29</v>
@@ -8867,10 +8867,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>78</v>
@@ -8941,7 +8941,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>29</v>
@@ -9015,7 +9015,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>29</v>
@@ -9089,7 +9089,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>29</v>
@@ -9163,13 +9163,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>94</v>
@@ -9237,7 +9237,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>29</v>
@@ -9311,7 +9311,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>29</v>
@@ -9385,7 +9385,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>29</v>
@@ -9457,16 +9457,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F92" s="3">
         <v>33</v>
@@ -9529,10 +9529,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>66</v>
@@ -9603,10 +9603,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>35</v>
@@ -9677,7 +9677,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>76</v>
@@ -9751,7 +9751,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>29</v>
@@ -9825,13 +9825,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>41</v>
@@ -9899,13 +9899,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>62</v>
@@ -9973,10 +9973,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>78</v>
@@ -10047,7 +10047,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>29</v>
@@ -10121,7 +10121,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>29</v>
@@ -10195,7 +10195,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>29</v>
@@ -10269,7 +10269,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>29</v>
@@ -10343,7 +10343,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>29</v>
@@ -10417,7 +10417,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>29</v>
@@ -10491,10 +10491,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>81</v>
@@ -10565,10 +10565,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>35</v>
@@ -10639,10 +10639,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>35</v>
@@ -10713,7 +10713,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>29</v>
@@ -10787,7 +10787,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>29</v>
@@ -10796,7 +10796,7 @@
         <v>85</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F110" s="3">
         <v>21</v>
@@ -10861,10 +10861,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>35</v>
@@ -10935,10 +10935,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>85</v>
@@ -11009,7 +11009,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>29</v>
@@ -11083,10 +11083,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>35</v>
@@ -11157,7 +11157,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>100</v>
@@ -11231,10 +11231,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>66</v>
@@ -11305,7 +11305,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>52</v>
@@ -11379,7 +11379,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>90</v>
@@ -11453,7 +11453,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>29</v>
@@ -11527,7 +11527,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>29</v>
@@ -11536,7 +11536,7 @@
         <v>35</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F120" s="3">
         <v>24</v>
@@ -11601,7 +11601,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>29</v>
@@ -11675,10 +11675,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>35</v>
@@ -11749,7 +11749,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>29</v>
@@ -11823,10 +11823,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>81</v>
@@ -11897,10 +11897,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>78</v>
@@ -11971,10 +11971,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>35</v>
@@ -12045,10 +12045,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>78</v>
@@ -12119,7 +12119,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>29</v>
@@ -12193,7 +12193,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>29</v>
@@ -12267,13 +12267,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="D130" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>96</v>
@@ -12341,10 +12341,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>78</v>
@@ -12415,10 +12415,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>78</v>
@@ -12489,7 +12489,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>64</v>
@@ -12563,13 +12563,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>79</v>
@@ -12637,7 +12637,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>90</v>
@@ -12711,7 +12711,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>29</v>
@@ -12785,7 +12785,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>29</v>
@@ -12859,7 +12859,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>29</v>
@@ -12933,7 +12933,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>29</v>
@@ -13007,7 +13007,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>29</v>
@@ -13081,10 +13081,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>35</v>
@@ -13155,7 +13155,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>29</v>
@@ -13229,10 +13229,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>26</v>
@@ -13301,10 +13301,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>85</v>
@@ -13375,7 +13375,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>90</v>
@@ -13449,7 +13449,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>29</v>
@@ -13523,7 +13523,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>88</v>
@@ -13597,10 +13597,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>35</v>
@@ -13671,16 +13671,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F149" s="3">
         <v>26</v>
@@ -13745,10 +13745,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>35</v>
@@ -13819,7 +13819,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>29</v>
@@ -13893,7 +13893,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>29</v>
@@ -13967,10 +13967,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>35</v>
@@ -14041,7 +14041,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>29</v>
@@ -14115,7 +14115,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>29</v>
@@ -14189,10 +14189,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>85</v>
@@ -14263,7 +14263,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>29</v>
@@ -14337,7 +14337,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>29</v>
@@ -14411,7 +14411,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>29</v>
@@ -14485,7 +14485,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>29</v>
@@ -14559,10 +14559,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>85</v>
@@ -14633,10 +14633,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>78</v>
@@ -14707,7 +14707,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>29</v>
@@ -14781,10 +14781,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>66</v>
@@ -14855,10 +14855,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>35</v>
@@ -14929,7 +14929,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>29</v>
@@ -15003,7 +15003,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>29</v>
@@ -15077,7 +15077,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>29</v>
@@ -15151,7 +15151,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>29</v>
@@ -15225,10 +15225,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>85</v>
@@ -15299,7 +15299,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>25</v>
@@ -15373,7 +15373,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>100</v>
@@ -15445,7 +15445,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>29</v>
@@ -15519,7 +15519,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>88</v>
@@ -15593,13 +15593,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>71</v>
@@ -15667,10 +15667,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>35</v>
@@ -15741,7 +15741,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>88</v>
@@ -15815,7 +15815,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>29</v>
@@ -15889,10 +15889,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>85</v>
@@ -15963,10 +15963,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D180" s="3" t="s">
         <v>59</v>
@@ -16037,7 +16037,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>29</v>
@@ -16111,7 +16111,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>29</v>
@@ -16185,10 +16185,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>26</v>
@@ -16257,7 +16257,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>29</v>
@@ -16331,7 +16331,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>29</v>
@@ -16405,7 +16405,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>25</v>
@@ -16414,7 +16414,7 @@
         <v>66</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F186" s="3">
         <v>32</v>
@@ -16479,16 +16479,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F187" s="3">
         <v>30</v>
@@ -16553,7 +16553,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>29</v>
@@ -16627,7 +16627,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>29</v>
@@ -16701,7 +16701,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>29</v>
@@ -16775,10 +16775,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>81</v>
@@ -16849,10 +16849,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>35</v>
@@ -16923,7 +16923,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>29</v>
@@ -16997,7 +16997,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>29</v>
@@ -17071,7 +17071,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>29</v>
@@ -17145,7 +17145,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>40</v>
@@ -17219,7 +17219,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>29</v>
@@ -17293,7 +17293,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>29</v>
@@ -17367,7 +17367,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>29</v>
@@ -17441,7 +17441,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>29</v>
@@ -17515,7 +17515,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>29</v>
@@ -17589,10 +17589,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>78</v>
@@ -17663,7 +17663,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>100</v>
@@ -17737,7 +17737,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>29</v>
@@ -17811,7 +17811,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>76</v>
@@ -17885,7 +17885,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>29</v>
@@ -17959,7 +17959,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>29</v>
@@ -18033,7 +18033,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>29</v>
@@ -18107,16 +18107,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F209" s="3">
         <v>20</v>
@@ -18181,7 +18181,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>88</v>
@@ -18255,7 +18255,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>55</v>
@@ -18264,7 +18264,7 @@
         <v>35</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F211" s="3">
         <v>20</v>
@@ -18329,7 +18329,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>88</v>
@@ -18403,7 +18403,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>29</v>
@@ -18477,7 +18477,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>29</v>
@@ -18551,7 +18551,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>90</v>
@@ -18625,10 +18625,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>78</v>
@@ -18699,7 +18699,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>25</v>
@@ -18773,7 +18773,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>29</v>
@@ -18847,7 +18847,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>29</v>
@@ -18921,7 +18921,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>40</v>
@@ -18995,10 +18995,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>85</v>
@@ -19069,7 +19069,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>70</v>
@@ -19143,16 +19143,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F223" s="3">
         <v>23</v>
@@ -19217,7 +19217,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>29</v>
@@ -19291,10 +19291,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C225" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="C225" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>59</v>
@@ -19365,7 +19365,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>29</v>
@@ -19439,7 +19439,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>29</v>
@@ -19513,7 +19513,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>100</v>
@@ -19587,10 +19587,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>35</v>
@@ -19661,7 +19661,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>100</v>
@@ -19670,7 +19670,7 @@
         <v>78</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F230" s="3">
         <v>30</v>
@@ -19735,7 +19735,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>25</v>
@@ -19809,7 +19809,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>29</v>
@@ -19883,7 +19883,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>29</v>
@@ -19957,10 +19957,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>35</v>
@@ -20031,10 +20031,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>78</v>
@@ -20105,7 +20105,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>40</v>
@@ -20179,16 +20179,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F237" s="3">
         <v>29</v>
@@ -20253,7 +20253,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>29</v>
@@ -20327,7 +20327,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>29</v>
@@ -20401,7 +20401,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>29</v>
@@ -20475,10 +20475,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>35</v>
@@ -20549,10 +20549,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D242" s="3" t="s">
         <v>78</v>
@@ -20623,7 +20623,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>100</v>
@@ -20632,7 +20632,7 @@
         <v>35</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F243" s="3">
         <v>24</v>
@@ -20697,7 +20697,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>29</v>
@@ -20771,16 +20771,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F245" s="3">
         <v>27</v>
@@ -20845,7 +20845,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>29</v>
@@ -20919,10 +20919,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C247" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>35</v>
@@ -20993,10 +20993,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>35</v>
@@ -21067,7 +21067,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>40</v>
@@ -21141,7 +21141,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>100</v>
@@ -21215,10 +21215,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C251" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>35</v>
@@ -21289,7 +21289,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>29</v>
@@ -21363,7 +21363,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>40</v>
@@ -21372,7 +21372,7 @@
         <v>59</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F253" s="3">
         <v>28</v>
@@ -21437,16 +21437,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F254" s="3">
         <v>28</v>
@@ -21511,10 +21511,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C255" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>352</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>35</v>
@@ -21585,7 +21585,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>29</v>
@@ -21659,7 +21659,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>29</v>
@@ -21733,7 +21733,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>29</v>
@@ -21807,7 +21807,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>29</v>
@@ -21816,7 +21816,7 @@
         <v>35</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F259" s="3">
         <v>21</v>
@@ -21881,16 +21881,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F260" s="3">
         <v>27</v>
@@ -21955,7 +21955,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>90</v>
@@ -22029,7 +22029,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>29</v>
@@ -22101,7 +22101,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>29</v>
@@ -22173,7 +22173,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>29</v>
@@ -22247,7 +22247,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>29</v>
@@ -22321,7 +22321,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>76</v>
@@ -22395,7 +22395,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>29</v>
@@ -22469,16 +22469,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F268" s="3">
         <v>28</v>
@@ -22543,7 +22543,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>29</v>
@@ -22617,10 +22617,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>35</v>
@@ -22691,10 +22691,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>85</v>
@@ -22765,7 +22765,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>25</v>
@@ -22774,7 +22774,7 @@
         <v>78</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F272" s="3">
         <v>26</v>
@@ -22839,7 +22839,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>29</v>
@@ -22913,7 +22913,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>29</v>
@@ -22987,10 +22987,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>81</v>
@@ -23061,7 +23061,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>29</v>
@@ -23070,7 +23070,7 @@
         <v>35</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F276" s="3">
         <v>27</v>
@@ -23135,7 +23135,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>40</v>
@@ -23209,7 +23209,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>100</v>
@@ -23283,10 +23283,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>35</v>
@@ -23357,7 +23357,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>100</v>
@@ -23431,7 +23431,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>29</v>
@@ -23505,7 +23505,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>88</v>
@@ -23579,7 +23579,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>29</v>
@@ -23653,7 +23653,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>29</v>
@@ -23727,7 +23727,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>29</v>
@@ -23801,7 +23801,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>29</v>
@@ -23875,10 +23875,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C287" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>85</v>
@@ -23949,7 +23949,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>29</v>
@@ -24023,7 +24023,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>29</v>
@@ -24097,7 +24097,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>29</v>
@@ -24171,7 +24171,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>100</v>
@@ -24245,7 +24245,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>40</v>
@@ -24319,7 +24319,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>76</v>
@@ -24393,7 +24393,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>47</v>
@@ -24467,7 +24467,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>29</v>
@@ -24541,7 +24541,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>29</v>
@@ -24615,7 +24615,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>29</v>
@@ -24689,7 +24689,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>29</v>
@@ -24763,7 +24763,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>90</v>
@@ -24837,7 +24837,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>100</v>
@@ -24911,7 +24911,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>29</v>
@@ -24985,7 +24985,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>29</v>
@@ -25059,7 +25059,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>29</v>
@@ -25133,10 +25133,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>35</v>
@@ -25207,10 +25207,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C305" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>35</v>
@@ -25281,7 +25281,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>100</v>
@@ -25355,10 +25355,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>66</v>
@@ -25429,10 +25429,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>26</v>
@@ -25501,7 +25501,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>29</v>
@@ -25575,7 +25575,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>25</v>
@@ -25584,7 +25584,7 @@
         <v>85</v>
       </c>
       <c r="E310" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F310" s="3">
         <v>27</v>
@@ -25649,7 +25649,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>29</v>
@@ -25723,10 +25723,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>35</v>
@@ -25797,7 +25797,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>88</v>
@@ -25871,10 +25871,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C314" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>415</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>81</v>
@@ -25945,16 +25945,16 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F315" s="3">
         <v>26</v>
@@ -26019,7 +26019,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>29</v>
@@ -26093,10 +26093,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>35</v>
@@ -26167,7 +26167,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>90</v>
@@ -26241,7 +26241,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>29</v>
@@ -26315,7 +26315,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>29</v>
@@ -26389,7 +26389,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>29</v>
@@ -26463,7 +26463,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>52</v>
@@ -26537,10 +26537,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D323" s="3" t="s">
         <v>78</v>
@@ -26611,7 +26611,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>100</v>
@@ -26685,10 +26685,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>35</v>
@@ -26759,7 +26759,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>88</v>
@@ -26833,7 +26833,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>29</v>
@@ -26907,10 +26907,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>66</v>
@@ -26981,10 +26981,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>85</v>
@@ -27055,10 +27055,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>66</v>
@@ -27129,13 +27129,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E331" s="3" t="s">
         <v>27</v>
@@ -27203,7 +27203,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>29</v>
@@ -27277,7 +27277,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>29</v>
@@ -27351,7 +27351,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>29</v>
@@ -27425,7 +27425,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>29</v>
@@ -27499,7 +27499,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>29</v>
@@ -27573,7 +27573,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>29</v>
@@ -27647,7 +27647,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>29</v>
@@ -27721,10 +27721,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>78</v>
@@ -27795,7 +27795,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>88</v>
@@ -27869,10 +27869,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C341" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="C341" s="3" t="s">
-        <v>443</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>66</v>
@@ -27943,7 +27943,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>40</v>
@@ -28017,10 +28017,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>78</v>
@@ -28091,7 +28091,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>29</v>
@@ -28165,7 +28165,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>29</v>
@@ -28239,7 +28239,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>29</v>
@@ -28313,7 +28313,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>90</v>
@@ -28387,7 +28387,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>29</v>
@@ -28461,7 +28461,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>29</v>
@@ -28535,7 +28535,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>29</v>
@@ -28609,7 +28609,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>29</v>
@@ -28683,10 +28683,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>26</v>
@@ -28755,16 +28755,16 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F353" s="3">
         <v>26</v>
@@ -28827,7 +28827,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>70</v>
@@ -28901,10 +28901,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C355" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>66</v>
@@ -28975,10 +28975,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>85</v>
@@ -29049,10 +29049,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>35</v>
@@ -29123,10 +29123,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>81</v>
@@ -29197,7 +29197,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>29</v>
@@ -29271,7 +29271,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>29</v>
@@ -29343,10 +29343,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C361" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="D361" s="3" t="s">
         <v>35</v>
@@ -29417,13 +29417,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E362" s="3" t="s">
         <v>60</v>
@@ -29491,7 +29491,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>70</v>
@@ -29565,7 +29565,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>29</v>
@@ -29637,7 +29637,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>100</v>
@@ -29709,10 +29709,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>35</v>
@@ -29783,7 +29783,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>90</v>
@@ -29857,10 +29857,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D368" s="3" t="s">
         <v>35</v>
@@ -29931,7 +29931,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>29</v>
@@ -30005,10 +30005,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D370" s="3" t="s">
         <v>81</v>
@@ -30079,7 +30079,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>29</v>
@@ -30153,13 +30153,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E372" s="3" t="s">
         <v>50</v>
@@ -30227,7 +30227,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>100</v>
@@ -30301,7 +30301,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>100</v>
@@ -30375,7 +30375,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>76</v>
@@ -30449,7 +30449,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>29</v>
@@ -30523,7 +30523,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>29</v>
@@ -30597,7 +30597,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>55</v>
@@ -30671,7 +30671,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>47</v>
@@ -30745,7 +30745,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>29</v>
@@ -30819,7 +30819,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>29</v>
@@ -30893,7 +30893,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>29</v>
@@ -30967,7 +30967,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>29</v>
@@ -31041,7 +31041,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>76</v>
@@ -31115,7 +31115,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>29</v>
@@ -31189,7 +31189,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>29</v>
@@ -31263,7 +31263,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>29</v>
@@ -31337,10 +31337,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C388" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="C388" s="3" t="s">
-        <v>493</v>
       </c>
       <c r="D388" s="3" t="s">
         <v>66</v>
@@ -31411,10 +31411,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D389" s="3" t="s">
         <v>35</v>
@@ -31485,7 +31485,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>29</v>
@@ -31559,7 +31559,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>83</v>
@@ -31633,10 +31633,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D392" s="3" t="s">
         <v>66</v>
@@ -31707,7 +31707,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>29</v>
@@ -31781,7 +31781,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>29</v>
@@ -31855,7 +31855,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>52</v>
@@ -31927,10 +31927,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C396" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="C396" s="3" t="s">
-        <v>502</v>
       </c>
       <c r="D396" s="3" t="s">
         <v>66</v>
@@ -32001,10 +32001,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C397" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>504</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>85</v>
@@ -32075,7 +32075,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>29</v>
@@ -32149,10 +32149,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>35</v>
@@ -32223,7 +32223,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>29</v>
@@ -32297,7 +32297,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>52</v>
@@ -32371,7 +32371,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>29</v>
@@ -32445,7 +32445,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>29</v>
@@ -32519,7 +32519,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>29</v>
@@ -32593,7 +32593,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>29</v>
@@ -32667,7 +32667,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>29</v>
@@ -32741,7 +32741,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>100</v>
@@ -32815,10 +32815,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C408" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>516</v>
       </c>
       <c r="D408" s="3" t="s">
         <v>78</v>
@@ -32889,7 +32889,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>100</v>
@@ -32961,7 +32961,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>29</v>
@@ -33035,7 +33035,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>29</v>
@@ -33109,7 +33109,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>88</v>
@@ -33183,7 +33183,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>100</v>
@@ -33257,7 +33257,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>76</v>
@@ -33331,7 +33331,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>76</v>
@@ -33405,10 +33405,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>66</v>
@@ -33479,7 +33479,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>64</v>
@@ -33553,7 +33553,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>100</v>
@@ -33627,7 +33627,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>29</v>
@@ -33636,7 +33636,7 @@
         <v>35</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F419" s="3">
         <v>17</v>
@@ -33701,10 +33701,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D420" s="3" t="s">
         <v>35</v>
@@ -33775,7 +33775,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>29</v>
@@ -33847,7 +33847,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>29</v>
@@ -33921,10 +33921,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D423" s="3" t="s">
         <v>81</v>
@@ -33995,7 +33995,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>52</v>
@@ -34069,7 +34069,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>29</v>
@@ -34143,10 +34143,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D426" s="3" t="s">
         <v>78</v>
@@ -34217,10 +34217,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D427" s="3" t="s">
         <v>35</v>
@@ -34291,7 +34291,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>29</v>
@@ -34365,7 +34365,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>88</v>
@@ -34439,10 +34439,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D430" s="3" t="s">
         <v>35</v>
@@ -34513,7 +34513,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>29</v>
@@ -34587,10 +34587,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>81</v>
@@ -34661,7 +34661,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>52</v>
@@ -34735,7 +34735,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>29</v>
@@ -34809,7 +34809,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>29</v>
@@ -34883,7 +34883,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>29</v>
@@ -34957,13 +34957,13 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E437" s="3" t="s">
         <v>50</v>
@@ -35031,7 +35031,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>29</v>
@@ -35105,7 +35105,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>76</v>
@@ -35179,13 +35179,13 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C440" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="C440" s="3" t="s">
-        <v>548</v>
-      </c>
       <c r="D440" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E440" s="3" t="s">
         <v>73</v>
@@ -35253,7 +35253,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>29</v>
@@ -35327,7 +35327,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>29</v>
@@ -35401,7 +35401,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>29</v>
@@ -35473,10 +35473,10 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C444" s="3" t="s">
         <v>552</v>
-      </c>
-      <c r="C444" s="3" t="s">
-        <v>553</v>
       </c>
       <c r="D444" s="3" t="s">
         <v>35</v>
@@ -35547,7 +35547,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>29</v>
@@ -35621,7 +35621,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>29</v>
@@ -35695,7 +35695,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>29</v>
@@ -35769,10 +35769,10 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D448" s="3" t="s">
         <v>35</v>
@@ -35843,10 +35843,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>78</v>
@@ -35917,7 +35917,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>100</v>
@@ -35991,7 +35991,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>40</v>
@@ -36065,7 +36065,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>29</v>
@@ -36139,10 +36139,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D453" s="3" t="s">
         <v>66</v>
@@ -36213,7 +36213,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>64</v>
@@ -36287,7 +36287,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>55</v>
@@ -36361,7 +36361,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>29</v>
@@ -36435,7 +36435,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>29</v>
@@ -36509,7 +36509,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>29</v>
@@ -36583,16 +36583,16 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D459" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E459" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F459" s="3">
         <v>27</v>
@@ -36657,7 +36657,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>29</v>
@@ -36731,7 +36731,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>29</v>
@@ -36805,7 +36805,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>29</v>
@@ -36879,7 +36879,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>29</v>
@@ -36953,10 +36953,10 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D464" s="3" t="s">
         <v>35</v>
@@ -37027,7 +37027,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>70</v>
@@ -37036,7 +37036,7 @@
         <v>66</v>
       </c>
       <c r="E465" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F465" s="3">
         <v>17</v>
@@ -37101,7 +37101,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>29</v>
@@ -37175,10 +37175,10 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D467" s="3" t="s">
         <v>78</v>
@@ -37249,7 +37249,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>29</v>
@@ -37323,7 +37323,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>40</v>
@@ -37397,7 +37397,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>76</v>
@@ -37471,10 +37471,10 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D471" s="3" t="s">
         <v>35</v>
@@ -37545,7 +37545,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>29</v>
@@ -37619,7 +37619,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>100</v>
@@ -37693,10 +37693,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D474" s="3" t="s">
         <v>85</v>
@@ -37767,7 +37767,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>29</v>
@@ -37841,7 +37841,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>29</v>
@@ -37913,7 +37913,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>29</v>
@@ -37987,7 +37987,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>29</v>
@@ -38061,7 +38061,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>29</v>
@@ -38135,13 +38135,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>50</v>
@@ -38209,7 +38209,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>29</v>
@@ -38283,7 +38283,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>29</v>
@@ -38357,7 +38357,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>29</v>
@@ -38431,7 +38431,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>76</v>
@@ -38505,13 +38505,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E485" s="3" t="s">
         <v>36</v>
@@ -38579,13 +38579,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E486" s="3" t="s">
         <v>36</v>
@@ -38653,7 +38653,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>29</v>
@@ -38725,10 +38725,10 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C488" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>595</v>
       </c>
       <c r="D488" s="3" t="s">
         <v>26</v>
@@ -38797,7 +38797,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>29</v>
@@ -38871,10 +38871,10 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D490" s="3" t="s">
         <v>78</v>
@@ -38945,7 +38945,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>29</v>
@@ -39019,7 +39019,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>29</v>
@@ -39091,10 +39091,10 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D493" s="3" t="s">
         <v>35</v>
@@ -39165,13 +39165,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E494" s="3" t="s">
         <v>79</v>
@@ -39239,16 +39239,16 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D495" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E495" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F495" s="3">
         <v>20</v>
@@ -39311,7 +39311,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>29</v>
@@ -39385,7 +39385,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>29</v>
@@ -39459,10 +39459,10 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D498" s="3" t="s">
         <v>26</v>
@@ -39531,7 +39531,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>100</v>
@@ -39603,7 +39603,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>90</v>
